--- a/trunk/Document/functionlist_workflow.xlsx
+++ b/trunk/Document/functionlist_workflow.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
   <si>
     <t>DS CHỨC NĂNG</t>
   </si>
@@ -106,6 +106,24 @@
   </si>
   <si>
     <t>R</t>
+  </si>
+  <si>
+    <t>Đã cung cấp code 3 lớp và stored procedures</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>thêm đợt thi và các dữ liệu liên quan:  đợt thi_chứng chỉ, tiến độ...</t>
+  </si>
+  <si>
+    <t>Ghi Chú</t>
+  </si>
+  <si>
+    <t>Tác động tới bảng tiến độ.</t>
+  </si>
+  <si>
+    <t>Tác động tới bảng Phân công. Ngayhethan == Null mang ý nghĩa phân công không có kỳ hạn.</t>
   </si>
 </sst>
 </file>
@@ -209,7 +227,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -223,11 +241,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -525,10 +546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -536,19 +557,21 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="32.28515625" style="4" customWidth="1"/>
     <col min="3" max="3" width="82.85546875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="4"/>
+    <col min="4" max="5" width="17.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="23.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="23.25">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-    </row>
-    <row r="2" spans="1:4" s="1" customFormat="1">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="1:6" s="1" customFormat="1">
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
@@ -559,91 +582,133 @@
       <c r="D2" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="6">
+      <c r="E2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="3"/>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="6">
+      <c r="E3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="5">
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="3"/>
-      <c r="D4" s="6"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="6">
+      <c r="D4" s="5"/>
+      <c r="E4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="5">
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="3"/>
-      <c r="D5" s="6"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="6">
+      <c r="D5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="5">
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="3"/>
-      <c r="D6" s="6"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="6">
+      <c r="D6" s="5"/>
+      <c r="E6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="5">
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="3"/>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="6">
+      <c r="D7" s="5"/>
+      <c r="E7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="5">
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="6">
+      <c r="C8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="5">
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="3"/>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="6">
+      <c r="D9" s="5"/>
+      <c r="E9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="5">
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="3"/>
-      <c r="D10" s="6"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="6">
+      <c r="D10" s="5"/>
+      <c r="E10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="5">
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -652,20 +717,28 @@
       <c r="C11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="6"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="6">
+      <c r="D11" s="5"/>
+      <c r="E11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="5">
         <v>10</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="6"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="6">
+      <c r="D12" s="5"/>
+      <c r="E12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="5">
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -674,20 +747,32 @@
       <c r="C13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="6"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="6">
+      <c r="D13" s="5"/>
+      <c r="E13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="5">
         <v>12</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="6"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="6">
+      <c r="D14" s="5"/>
+      <c r="E14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="5">
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -696,30 +781,38 @@
       <c r="C15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="6"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="6">
+      <c r="D15" s="5"/>
+      <c r="E15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="5">
         <v>14</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="6"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="6">
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="5">
         <v>15</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="6"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="6">
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="5">
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -728,10 +821,12 @@
       <c r="C18" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="6"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="6">
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="5">
         <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -740,37 +835,45 @@
       <c r="C19" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="6"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="6">
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="5">
         <v>18</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="6"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="6">
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="5">
         <v>19</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="6"/>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="6">
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="5">
         <v>20</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="6"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/trunk/Document/functionlist_workflow.xlsx
+++ b/trunk/Document/functionlist_workflow.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
   <si>
     <t>DS CHỨC NĂNG</t>
   </si>
@@ -244,11 +244,11 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -549,7 +549,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -563,12 +563,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="23.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
       <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1">
@@ -582,10 +582,10 @@
       <c r="D2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>33</v>
       </c>
     </row>
@@ -796,7 +796,9 @@
         <v>14</v>
       </c>
       <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
+      <c r="E16" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6">

--- a/trunk/Document/functionlist_workflow.xlsx
+++ b/trunk/Document/functionlist_workflow.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="36">
   <si>
     <t>DS CHỨC NĂNG</t>
   </si>
@@ -549,7 +549,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -810,7 +810,9 @@
         <v>15</v>
       </c>
       <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
+      <c r="E17" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6">

--- a/trunk/Document/functionlist_workflow.xlsx
+++ b/trunk/Document/functionlist_workflow.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
   <si>
     <t>DS CHỨC NĂNG</t>
   </si>
@@ -124,6 +124,12 @@
   </si>
   <si>
     <t>Tác động tới bảng Phân công. Ngayhethan == Null mang ý nghĩa phân công không có kỳ hạn.</t>
+  </si>
+  <si>
+    <t>Thông báo</t>
+  </si>
+  <si>
+    <t>tạo, lấy thông báo</t>
   </si>
 </sst>
 </file>
@@ -546,10 +552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -878,6 +884,22 @@
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="5">
+        <v>21</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/trunk/Document/functionlist_workflow.xlsx
+++ b/trunk/Document/functionlist_workflow.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
   <si>
     <t>DS CHỨC NĂNG</t>
   </si>
@@ -130,6 +130,9 @@
   </si>
   <si>
     <t>tạo, lấy thông báo</t>
+  </si>
+  <si>
+    <t>Lấy thông tin về: các đợt thi đã xong, đang diễn ra, sắp diễn ra, và các thông tin chi tiết khác</t>
   </si>
 </sst>
 </file>
@@ -554,8 +557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -832,8 +835,12 @@
         <v>27</v>
       </c>
       <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="3"/>
+      <c r="E18" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="5">

--- a/trunk/Document/functionlist_workflow.xlsx
+++ b/trunk/Document/functionlist_workflow.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
   <si>
     <t>DS CHỨC NĂNG</t>
   </si>
@@ -558,7 +558,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19:E19"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -853,7 +853,9 @@
         <v>20</v>
       </c>
       <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
+      <c r="E19" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6">
